--- a/data/output/FV2504_FV2410/UTILMD/55006.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55006.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="222">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1841" uniqueCount="222">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -808,6 +808,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U94" totalsRowShown="0">
+  <autoFilter ref="A1:U94"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1097,7 +1127,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -5320,5 +5353,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/UTILMD/55006.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55006.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2207" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2201" uniqueCount="314">
   <si>
     <t>#</t>
   </si>
@@ -5025,44 +5025,42 @@
       <c r="V73" s="5"/>
     </row>
     <row r="74" spans="1:22">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C74" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
-      <c r="I74" s="5"/>
-      <c r="J74" s="5" t="s">
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="K74" s="5"/>
-      <c r="L74" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="M74" s="5" t="s">
+      <c r="K74" s="2"/>
+      <c r="L74" s="4"/>
+      <c r="M74" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N74" s="5" t="s">
+      <c r="N74" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O74" s="5"/>
-      <c r="P74" s="5"/>
-      <c r="Q74" s="5"/>
-      <c r="R74" s="5"/>
-      <c r="S74" s="5"/>
-      <c r="T74" s="5"/>
-      <c r="U74" s="5" t="s">
+      <c r="O74" s="2"/>
+      <c r="P74" s="2"/>
+      <c r="Q74" s="2"/>
+      <c r="R74" s="2"/>
+      <c r="S74" s="2"/>
+      <c r="T74" s="2"/>
+      <c r="U74" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="V74" s="5"/>
+      <c r="V74" s="2"/>
     </row>
     <row r="75" spans="1:22">
       <c r="A75" s="5" t="s">
@@ -5200,9 +5198,7 @@
         <v>194</v>
       </c>
       <c r="K77" s="5"/>
-      <c r="L77" s="7" t="s">
-        <v>210</v>
-      </c>
+      <c r="L77" s="4"/>
       <c r="M77" s="5" t="s">
         <v>34</v>
       </c>
@@ -5229,44 +5225,42 @@
       <c r="V77" s="5"/>
     </row>
     <row r="78" spans="1:22">
-      <c r="A78" s="5" t="s">
+      <c r="A78" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="C78" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
-      <c r="I78" s="5"/>
-      <c r="J78" s="5" t="s">
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="K78" s="5"/>
-      <c r="L78" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="M78" s="5" t="s">
+      <c r="K78" s="2"/>
+      <c r="L78" s="4"/>
+      <c r="M78" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="N78" s="5" t="s">
+      <c r="N78" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O78" s="5"/>
-      <c r="P78" s="5"/>
-      <c r="Q78" s="5"/>
-      <c r="R78" s="5"/>
-      <c r="S78" s="5"/>
-      <c r="T78" s="5"/>
-      <c r="U78" s="5" t="s">
+      <c r="O78" s="2"/>
+      <c r="P78" s="2"/>
+      <c r="Q78" s="2"/>
+      <c r="R78" s="2"/>
+      <c r="S78" s="2"/>
+      <c r="T78" s="2"/>
+      <c r="U78" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="V78" s="5"/>
+      <c r="V78" s="2"/>
     </row>
     <row r="79" spans="1:22">
       <c r="A79" s="5" t="s">

--- a/data/output/FV2504_FV2410/UTILMD/55006.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55006.xlsx
@@ -1068,7 +1068,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1091,6 +1091,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1099,6 +1102,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1541,7 +1547,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -1905,7 +1911,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2051,7 +2057,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2253,7 +2259,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -2561,7 +2567,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -2761,7 +2767,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -3135,7 +3141,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -3443,7 +3449,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -3625,26 +3631,26 @@
       <c r="B43" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8" t="s">
+      <c r="E43" s="9"/>
+      <c r="F43" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8" t="s">
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="K43" s="8" t="s">
+      <c r="K43" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="L43" s="9" t="s">
+      <c r="L43" s="10" t="s">
         <v>211</v>
       </c>
       <c r="M43" s="5"/>
@@ -3662,33 +3668,33 @@
       <c r="A44" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D44" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="E44" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="F44" s="8" t="s">
+      <c r="F44" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="G44" s="8" t="s">
+      <c r="G44" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8" t="s">
+      <c r="H44" s="9"/>
+      <c r="I44" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="J44" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="K44" s="8"/>
-      <c r="L44" s="9" t="s">
+      <c r="J44" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="K44" s="9"/>
+      <c r="L44" s="10" t="s">
         <v>211</v>
       </c>
       <c r="M44" s="5"/>
@@ -3706,33 +3712,33 @@
       <c r="A45" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="E45" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F45" s="8" t="s">
+      <c r="F45" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="G45" s="8" t="s">
+      <c r="G45" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8" t="s">
+      <c r="H45" s="9"/>
+      <c r="I45" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="J45" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="K45" s="8"/>
-      <c r="L45" s="9" t="s">
+      <c r="J45" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="K45" s="9"/>
+      <c r="L45" s="10" t="s">
         <v>211</v>
       </c>
       <c r="M45" s="5"/>
@@ -3750,31 +3756,31 @@
       <c r="A46" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D46" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E46" s="8" t="s">
+      <c r="E46" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8" t="s">
+      <c r="F46" s="9"/>
+      <c r="G46" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8" t="s">
+      <c r="H46" s="9"/>
+      <c r="I46" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="J46" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="K46" s="8"/>
-      <c r="L46" s="9" t="s">
+      <c r="J46" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="K46" s="9"/>
+      <c r="L46" s="10" t="s">
         <v>211</v>
       </c>
       <c r="M46" s="5"/>
@@ -3792,31 +3798,31 @@
       <c r="A47" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E47" s="8" t="s">
+      <c r="E47" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8" t="s">
+      <c r="F47" s="9"/>
+      <c r="G47" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8" t="s">
+      <c r="H47" s="9"/>
+      <c r="I47" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="J47" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="K47" s="8"/>
-      <c r="L47" s="9" t="s">
+      <c r="J47" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="K47" s="9"/>
+      <c r="L47" s="10" t="s">
         <v>211</v>
       </c>
       <c r="M47" s="5"/>
@@ -3834,31 +3840,31 @@
       <c r="A48" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="D48" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E48" s="8" t="s">
+      <c r="E48" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8" t="s">
+      <c r="F48" s="9"/>
+      <c r="G48" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8" t="s">
+      <c r="H48" s="9"/>
+      <c r="I48" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="J48" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="K48" s="8"/>
-      <c r="L48" s="9" t="s">
+      <c r="J48" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="K48" s="9"/>
+      <c r="L48" s="10" t="s">
         <v>211</v>
       </c>
       <c r="M48" s="5"/>
@@ -3876,31 +3882,31 @@
       <c r="A49" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D49" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="E49" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8" t="s">
+      <c r="F49" s="9"/>
+      <c r="G49" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8" t="s">
+      <c r="H49" s="9"/>
+      <c r="I49" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="J49" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="K49" s="8"/>
-      <c r="L49" s="9" t="s">
+      <c r="J49" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="K49" s="9"/>
+      <c r="L49" s="10" t="s">
         <v>211</v>
       </c>
       <c r="M49" s="5"/>
@@ -3918,33 +3924,33 @@
       <c r="A50" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="D50" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E50" s="8" t="s">
+      <c r="E50" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8" t="s">
+      <c r="F50" s="9"/>
+      <c r="G50" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8" t="s">
+      <c r="H50" s="9"/>
+      <c r="I50" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="J50" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="K50" s="8" t="s">
+      <c r="J50" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="K50" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="L50" s="9" t="s">
+      <c r="L50" s="10" t="s">
         <v>211</v>
       </c>
       <c r="M50" s="5"/>
@@ -3962,31 +3968,31 @@
       <c r="A51" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E51" s="8" t="s">
+      <c r="E51" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8" t="s">
+      <c r="F51" s="9"/>
+      <c r="G51" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8" t="s">
+      <c r="H51" s="9"/>
+      <c r="I51" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="J51" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="K51" s="8"/>
-      <c r="L51" s="9" t="s">
+      <c r="J51" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="K51" s="9"/>
+      <c r="L51" s="10" t="s">
         <v>211</v>
       </c>
       <c r="M51" s="5"/>
@@ -4004,31 +4010,31 @@
       <c r="A52" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E52" s="8" t="s">
+      <c r="E52" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8" t="s">
+      <c r="F52" s="9"/>
+      <c r="G52" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8" t="s">
+      <c r="H52" s="9"/>
+      <c r="I52" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="J52" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="K52" s="8"/>
-      <c r="L52" s="9" t="s">
+      <c r="J52" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="K52" s="9"/>
+      <c r="L52" s="10" t="s">
         <v>211</v>
       </c>
       <c r="M52" s="5"/>
@@ -4056,29 +4062,29 @@
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
-      <c r="L53" s="10" t="s">
+      <c r="L53" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="M53" s="11" t="s">
+      <c r="M53" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="N53" s="11" t="s">
+      <c r="N53" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="O53" s="11" t="s">
+      <c r="O53" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="P53" s="11"/>
-      <c r="Q53" s="11" t="s">
+      <c r="P53" s="13"/>
+      <c r="Q53" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="R53" s="11"/>
-      <c r="S53" s="11"/>
-      <c r="T53" s="11"/>
-      <c r="U53" s="11" t="s">
+      <c r="R53" s="13"/>
+      <c r="S53" s="13"/>
+      <c r="T53" s="13"/>
+      <c r="U53" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="V53" s="11"/>
+      <c r="V53" s="13"/>
     </row>
     <row r="54" spans="1:22">
       <c r="A54" s="5" t="s">
@@ -4094,35 +4100,35 @@
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
-      <c r="L54" s="10" t="s">
+      <c r="L54" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="M54" s="11" t="s">
+      <c r="M54" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="N54" s="11" t="s">
+      <c r="N54" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="O54" s="11" t="s">
+      <c r="O54" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="P54" s="11" t="s">
+      <c r="P54" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="Q54" s="11" t="s">
+      <c r="Q54" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="R54" s="11" t="s">
+      <c r="R54" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="S54" s="11"/>
-      <c r="T54" s="11" t="s">
+      <c r="S54" s="13"/>
+      <c r="T54" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="U54" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="V54" s="11"/>
+      <c r="U54" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="V54" s="13"/>
     </row>
     <row r="55" spans="1:22">
       <c r="A55" s="5" t="s">
@@ -4138,35 +4144,35 @@
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
-      <c r="L55" s="10" t="s">
+      <c r="L55" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="M55" s="11" t="s">
+      <c r="M55" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="N55" s="11" t="s">
+      <c r="N55" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="O55" s="11" t="s">
+      <c r="O55" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="P55" s="11" t="s">
+      <c r="P55" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="Q55" s="11" t="s">
+      <c r="Q55" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="R55" s="11" t="s">
+      <c r="R55" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="S55" s="11"/>
-      <c r="T55" s="11" t="s">
+      <c r="S55" s="13"/>
+      <c r="T55" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="U55" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="V55" s="11"/>
+      <c r="U55" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="V55" s="13"/>
     </row>
     <row r="56" spans="1:22">
       <c r="A56" s="5" t="s">
@@ -4182,33 +4188,33 @@
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
-      <c r="L56" s="10" t="s">
+      <c r="L56" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="M56" s="11" t="s">
+      <c r="M56" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="N56" s="11" t="s">
+      <c r="N56" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="O56" s="11" t="s">
+      <c r="O56" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="P56" s="11" t="s">
+      <c r="P56" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="Q56" s="11"/>
-      <c r="R56" s="11" t="s">
+      <c r="Q56" s="13"/>
+      <c r="R56" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="S56" s="11"/>
-      <c r="T56" s="11" t="s">
+      <c r="S56" s="13"/>
+      <c r="T56" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="U56" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="V56" s="11"/>
+      <c r="U56" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="V56" s="13"/>
     </row>
     <row r="57" spans="1:22">
       <c r="A57" s="5" t="s">
@@ -4224,33 +4230,33 @@
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
-      <c r="L57" s="10" t="s">
+      <c r="L57" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="M57" s="11" t="s">
+      <c r="M57" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="N57" s="11" t="s">
+      <c r="N57" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="O57" s="11" t="s">
+      <c r="O57" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="P57" s="11" t="s">
+      <c r="P57" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="Q57" s="11"/>
-      <c r="R57" s="11" t="s">
+      <c r="Q57" s="13"/>
+      <c r="R57" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="S57" s="11"/>
-      <c r="T57" s="11" t="s">
+      <c r="S57" s="13"/>
+      <c r="T57" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="U57" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="V57" s="11"/>
+      <c r="U57" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="V57" s="13"/>
     </row>
     <row r="58" spans="1:22">
       <c r="A58" s="5" t="s">
@@ -4266,33 +4272,33 @@
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
-      <c r="L58" s="10" t="s">
+      <c r="L58" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="M58" s="11" t="s">
+      <c r="M58" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="N58" s="11" t="s">
+      <c r="N58" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="O58" s="11" t="s">
+      <c r="O58" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="P58" s="11" t="s">
+      <c r="P58" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="Q58" s="11"/>
-      <c r="R58" s="11" t="s">
+      <c r="Q58" s="13"/>
+      <c r="R58" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="S58" s="11"/>
-      <c r="T58" s="11" t="s">
+      <c r="S58" s="13"/>
+      <c r="T58" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="U58" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="V58" s="11"/>
+      <c r="U58" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="V58" s="13"/>
     </row>
     <row r="59" spans="1:22">
       <c r="A59" s="5" t="s">
@@ -4308,33 +4314,33 @@
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
-      <c r="L59" s="10" t="s">
+      <c r="L59" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="M59" s="11" t="s">
+      <c r="M59" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="N59" s="11" t="s">
+      <c r="N59" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="O59" s="11" t="s">
+      <c r="O59" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="P59" s="11" t="s">
+      <c r="P59" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="Q59" s="11"/>
-      <c r="R59" s="11" t="s">
+      <c r="Q59" s="13"/>
+      <c r="R59" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="S59" s="11"/>
-      <c r="T59" s="11" t="s">
+      <c r="S59" s="13"/>
+      <c r="T59" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="U59" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="V59" s="11"/>
+      <c r="U59" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="V59" s="13"/>
     </row>
     <row r="60" spans="1:22">
       <c r="A60" s="5" t="s">
@@ -4350,33 +4356,33 @@
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
-      <c r="L60" s="10" t="s">
+      <c r="L60" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="M60" s="11" t="s">
+      <c r="M60" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="N60" s="11" t="s">
+      <c r="N60" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="O60" s="11" t="s">
+      <c r="O60" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="P60" s="11" t="s">
+      <c r="P60" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="Q60" s="11"/>
-      <c r="R60" s="11" t="s">
+      <c r="Q60" s="13"/>
+      <c r="R60" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="S60" s="11"/>
-      <c r="T60" s="11" t="s">
+      <c r="S60" s="13"/>
+      <c r="T60" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="U60" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="V60" s="11"/>
+      <c r="U60" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="V60" s="13"/>
     </row>
     <row r="61" spans="1:22">
       <c r="A61" s="5" t="s">
@@ -4392,33 +4398,33 @@
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
-      <c r="L61" s="10" t="s">
+      <c r="L61" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="M61" s="11" t="s">
+      <c r="M61" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="N61" s="11" t="s">
+      <c r="N61" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="O61" s="11" t="s">
+      <c r="O61" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="P61" s="11" t="s">
+      <c r="P61" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="Q61" s="11"/>
-      <c r="R61" s="11" t="s">
+      <c r="Q61" s="13"/>
+      <c r="R61" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="S61" s="11"/>
-      <c r="T61" s="11" t="s">
+      <c r="S61" s="13"/>
+      <c r="T61" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="U61" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="V61" s="11"/>
+      <c r="U61" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="V61" s="13"/>
     </row>
     <row r="62" spans="1:22">
       <c r="A62" s="5" t="s">
@@ -4434,56 +4440,56 @@
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
-      <c r="L62" s="10" t="s">
+      <c r="L62" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="M62" s="11" t="s">
+      <c r="M62" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="N62" s="11" t="s">
+      <c r="N62" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="O62" s="11" t="s">
+      <c r="O62" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="P62" s="11" t="s">
+      <c r="P62" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="Q62" s="11"/>
-      <c r="R62" s="11" t="s">
+      <c r="Q62" s="13"/>
+      <c r="R62" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="S62" s="11"/>
-      <c r="T62" s="11" t="s">
+      <c r="S62" s="13"/>
+      <c r="T62" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="U62" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="V62" s="11" t="s">
+      <c r="U62" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="V62" s="13" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="63" spans="1:22">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C63" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="D63" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E63" s="5"/>
+      <c r="E63" s="2"/>
       <c r="F63" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
       <c r="J63" s="6" t="s">
         <v>200</v>
       </c>
@@ -4493,22 +4499,22 @@
       <c r="L63" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="M63" s="5" t="s">
+      <c r="M63" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N63" s="5" t="s">
+      <c r="N63" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="O63" s="5" t="s">
+      <c r="O63" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="P63" s="5"/>
+      <c r="P63" s="2"/>
       <c r="Q63" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="R63" s="5"/>
-      <c r="S63" s="5"/>
-      <c r="T63" s="5"/>
+      <c r="R63" s="2"/>
+      <c r="S63" s="2"/>
+      <c r="T63" s="2"/>
       <c r="U63" s="6" t="s">
         <v>199</v>
       </c>
@@ -4697,25 +4703,25 @@
       <c r="V66" s="5"/>
     </row>
     <row r="67" spans="1:22">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C67" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="D67" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E67" s="5"/>
+      <c r="E67" s="2"/>
       <c r="F67" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
       <c r="J67" s="6" t="s">
         <v>196</v>
       </c>
@@ -4723,22 +4729,22 @@
       <c r="L67" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="M67" s="5" t="s">
+      <c r="M67" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="N67" s="5" t="s">
+      <c r="N67" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="O67" s="5" t="s">
+      <c r="O67" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="P67" s="5"/>
+      <c r="P67" s="2"/>
       <c r="Q67" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="R67" s="5"/>
-      <c r="S67" s="5"/>
-      <c r="T67" s="5"/>
+      <c r="R67" s="2"/>
+      <c r="S67" s="2"/>
+      <c r="T67" s="2"/>
       <c r="U67" s="6" t="s">
         <v>222</v>
       </c>
@@ -4869,22 +4875,22 @@
       <c r="B70" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C70" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="8"/>
-      <c r="I70" s="8"/>
-      <c r="J70" s="8" t="s">
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="K70" s="8" t="s">
+      <c r="K70" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="L70" s="9" t="s">
+      <c r="L70" s="10" t="s">
         <v>211</v>
       </c>
       <c r="M70" s="5"/>
@@ -4902,27 +4908,27 @@
       <c r="A71" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C71" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D71" s="8" t="s">
+      <c r="D71" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8" t="s">
+      <c r="E71" s="9"/>
+      <c r="F71" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="G71" s="8"/>
-      <c r="H71" s="8"/>
-      <c r="I71" s="8"/>
-      <c r="J71" s="8" t="s">
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="K71" s="8"/>
-      <c r="L71" s="9" t="s">
+      <c r="K71" s="9"/>
+      <c r="L71" s="10" t="s">
         <v>211</v>
       </c>
       <c r="M71" s="5"/>
@@ -4940,33 +4946,33 @@
       <c r="A72" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="B72" s="8" t="s">
+      <c r="B72" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C72" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D72" s="8" t="s">
+      <c r="D72" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E72" s="8" t="s">
+      <c r="E72" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F72" s="8" t="s">
+      <c r="F72" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="G72" s="8" t="s">
+      <c r="G72" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="H72" s="8"/>
-      <c r="I72" s="8" t="s">
+      <c r="H72" s="9"/>
+      <c r="I72" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="J72" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="K72" s="8"/>
-      <c r="L72" s="9" t="s">
+      <c r="J72" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="K72" s="9"/>
+      <c r="L72" s="10" t="s">
         <v>211</v>
       </c>
       <c r="M72" s="5"/>
@@ -4984,33 +4990,33 @@
       <c r="A73" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="B73" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C73" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D73" s="8" t="s">
+      <c r="D73" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E73" s="8" t="s">
+      <c r="E73" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F73" s="8" t="s">
+      <c r="F73" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="G73" s="8"/>
-      <c r="H73" s="8"/>
-      <c r="I73" s="8" t="s">
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="J73" s="8" t="s">
+      <c r="J73" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="K73" s="8" t="s">
+      <c r="K73" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="L73" s="9" t="s">
+      <c r="L73" s="10" t="s">
         <v>211</v>
       </c>
       <c r="M73" s="5"/>
@@ -5045,7 +5051,7 @@
       </c>
       <c r="K74" s="2"/>
       <c r="L74" s="4"/>
-      <c r="M74" s="2" t="s">
+      <c r="M74" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N74" s="2" t="s">
@@ -5245,7 +5251,7 @@
       </c>
       <c r="K78" s="2"/>
       <c r="L78" s="4"/>
-      <c r="M78" s="2" t="s">
+      <c r="M78" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N78" s="2" t="s">
@@ -5433,22 +5439,22 @@
       <c r="B82" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="C82" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D82" s="8"/>
-      <c r="E82" s="8"/>
-      <c r="F82" s="8"/>
-      <c r="G82" s="8"/>
-      <c r="H82" s="8"/>
-      <c r="I82" s="8"/>
-      <c r="J82" s="8" t="s">
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="K82" s="8" t="s">
+      <c r="K82" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="L82" s="9" t="s">
+      <c r="L82" s="10" t="s">
         <v>211</v>
       </c>
       <c r="M82" s="5"/>
@@ -5466,27 +5472,27 @@
       <c r="A83" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="B83" s="8" t="s">
+      <c r="B83" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="C83" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D83" s="8" t="s">
+      <c r="D83" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E83" s="8"/>
-      <c r="F83" s="8" t="s">
+      <c r="E83" s="9"/>
+      <c r="F83" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="G83" s="8"/>
-      <c r="H83" s="8"/>
-      <c r="I83" s="8"/>
-      <c r="J83" s="8" t="s">
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="K83" s="8"/>
-      <c r="L83" s="9" t="s">
+      <c r="K83" s="9"/>
+      <c r="L83" s="10" t="s">
         <v>211</v>
       </c>
       <c r="M83" s="5"/>
@@ -5504,33 +5510,33 @@
       <c r="A84" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="B84" s="8" t="s">
+      <c r="B84" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="C84" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D84" s="8" t="s">
+      <c r="D84" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E84" s="8" t="s">
+      <c r="E84" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F84" s="8" t="s">
+      <c r="F84" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="G84" s="8" t="s">
+      <c r="G84" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="H84" s="8"/>
-      <c r="I84" s="8" t="s">
+      <c r="H84" s="9"/>
+      <c r="I84" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="J84" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="K84" s="8"/>
-      <c r="L84" s="9" t="s">
+      <c r="J84" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="K84" s="9"/>
+      <c r="L84" s="10" t="s">
         <v>211</v>
       </c>
       <c r="M84" s="5"/>
@@ -5551,24 +5557,24 @@
       <c r="B85" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C85" s="8" t="s">
+      <c r="C85" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D85" s="8" t="s">
+      <c r="D85" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E85" s="8"/>
-      <c r="F85" s="8" t="s">
+      <c r="E85" s="9"/>
+      <c r="F85" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="G85" s="8"/>
-      <c r="H85" s="8"/>
-      <c r="I85" s="8"/>
-      <c r="J85" s="8" t="s">
+      <c r="G85" s="9"/>
+      <c r="H85" s="9"/>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="K85" s="8"/>
-      <c r="L85" s="9" t="s">
+      <c r="K85" s="9"/>
+      <c r="L85" s="10" t="s">
         <v>211</v>
       </c>
       <c r="M85" s="5"/>
@@ -5586,33 +5592,33 @@
       <c r="A86" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="B86" s="8" t="s">
+      <c r="B86" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C86" s="8" t="s">
+      <c r="C86" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D86" s="8" t="s">
+      <c r="D86" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E86" s="8" t="s">
+      <c r="E86" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F86" s="8" t="s">
+      <c r="F86" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="G86" s="8" t="s">
+      <c r="G86" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="H86" s="8"/>
-      <c r="I86" s="8" t="s">
+      <c r="H86" s="9"/>
+      <c r="I86" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="J86" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="K86" s="8"/>
-      <c r="L86" s="9" t="s">
+      <c r="J86" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="K86" s="9"/>
+      <c r="L86" s="10" t="s">
         <v>211</v>
       </c>
       <c r="M86" s="5"/>
@@ -5630,33 +5636,33 @@
       <c r="A87" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="B87" s="8" t="s">
+      <c r="B87" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="C87" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D87" s="8" t="s">
+      <c r="D87" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E87" s="8" t="s">
+      <c r="E87" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="F87" s="8" t="s">
+      <c r="F87" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="G87" s="8"/>
-      <c r="H87" s="8"/>
-      <c r="I87" s="8" t="s">
+      <c r="G87" s="9"/>
+      <c r="H87" s="9"/>
+      <c r="I87" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="J87" s="8" t="s">
+      <c r="J87" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="K87" s="8" t="s">
+      <c r="K87" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="L87" s="9" t="s">
+      <c r="L87" s="10" t="s">
         <v>211</v>
       </c>
       <c r="M87" s="5"/>
@@ -5677,20 +5683,20 @@
       <c r="B88" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C88" s="8" t="s">
+      <c r="C88" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D88" s="8"/>
-      <c r="E88" s="8"/>
-      <c r="F88" s="8"/>
-      <c r="G88" s="8"/>
-      <c r="H88" s="8"/>
-      <c r="I88" s="8"/>
-      <c r="J88" s="8" t="s">
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="9"/>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="K88" s="8"/>
-      <c r="L88" s="9" t="s">
+      <c r="K88" s="9"/>
+      <c r="L88" s="10" t="s">
         <v>211</v>
       </c>
       <c r="M88" s="5"/>
@@ -5708,27 +5714,27 @@
       <c r="A89" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="B89" s="8" t="s">
+      <c r="B89" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C89" s="8" t="s">
+      <c r="C89" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D89" s="8" t="s">
+      <c r="D89" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E89" s="8"/>
-      <c r="F89" s="8" t="s">
+      <c r="E89" s="9"/>
+      <c r="F89" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="G89" s="8"/>
-      <c r="H89" s="8"/>
-      <c r="I89" s="8"/>
-      <c r="J89" s="8" t="s">
+      <c r="G89" s="9"/>
+      <c r="H89" s="9"/>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="K89" s="8"/>
-      <c r="L89" s="9" t="s">
+      <c r="K89" s="9"/>
+      <c r="L89" s="10" t="s">
         <v>211</v>
       </c>
       <c r="M89" s="5"/>
@@ -5746,33 +5752,33 @@
       <c r="A90" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="B90" s="8" t="s">
+      <c r="B90" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C90" s="8" t="s">
+      <c r="C90" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D90" s="8" t="s">
+      <c r="D90" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E90" s="8" t="s">
+      <c r="E90" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="F90" s="8" t="s">
+      <c r="F90" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="G90" s="8" t="s">
+      <c r="G90" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="H90" s="8"/>
-      <c r="I90" s="8" t="s">
+      <c r="H90" s="9"/>
+      <c r="I90" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="J90" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="K90" s="8"/>
-      <c r="L90" s="9" t="s">
+      <c r="J90" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="K90" s="9"/>
+      <c r="L90" s="10" t="s">
         <v>211</v>
       </c>
       <c r="M90" s="5"/>
@@ -5790,33 +5796,33 @@
       <c r="A91" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="B91" s="8" t="s">
+      <c r="B91" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C91" s="8" t="s">
+      <c r="C91" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D91" s="8" t="s">
+      <c r="D91" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E91" s="8" t="s">
+      <c r="E91" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="F91" s="8" t="s">
+      <c r="F91" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="G91" s="8" t="s">
+      <c r="G91" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="H91" s="8"/>
-      <c r="I91" s="8" t="s">
+      <c r="H91" s="9"/>
+      <c r="I91" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="J91" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="K91" s="8"/>
-      <c r="L91" s="9" t="s">
+      <c r="J91" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="K91" s="9"/>
+      <c r="L91" s="10" t="s">
         <v>211</v>
       </c>
       <c r="M91" s="5"/>
@@ -5831,48 +5837,48 @@
       <c r="V91" s="5"/>
     </row>
     <row r="92" spans="1:22">
-      <c r="A92" s="5" t="s">
+      <c r="A92" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B92" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C92" s="5"/>
-      <c r="D92" s="5" t="s">
+      <c r="C92" s="2"/>
+      <c r="D92" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E92" s="5"/>
+      <c r="E92" s="2"/>
       <c r="F92" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="G92" s="5"/>
-      <c r="H92" s="5"/>
-      <c r="I92" s="5"/>
-      <c r="J92" s="5" t="s">
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="K92" s="5"/>
+      <c r="K92" s="2"/>
       <c r="L92" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="M92" s="5" t="s">
+      <c r="M92" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N92" s="5"/>
-      <c r="O92" s="5" t="s">
+      <c r="N92" s="2"/>
+      <c r="O92" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P92" s="5"/>
+      <c r="P92" s="2"/>
       <c r="Q92" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="R92" s="5"/>
-      <c r="S92" s="5"/>
-      <c r="T92" s="5"/>
-      <c r="U92" s="5" t="s">
+      <c r="R92" s="2"/>
+      <c r="S92" s="2"/>
+      <c r="T92" s="2"/>
+      <c r="U92" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="V92" s="5"/>
+      <c r="V92" s="2"/>
     </row>
     <row r="93" spans="1:22">
       <c r="A93" s="5" t="s">
